--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha2F-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9939172738828163</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9872764148807824</v>
+      </c>
+      <c r="D16">
+        <v>1.033312647539365</v>
+      </c>
+      <c r="E16">
+        <v>0.9838123690021011</v>
+      </c>
+      <c r="F16">
+        <v>0.9872764148807824</v>
+      </c>
+      <c r="G16">
+        <v>1.015657891960751</v>
+      </c>
+      <c r="H16">
+        <v>0.9651918068774645</v>
+      </c>
+      <c r="I16">
+        <v>0.9848434837540447</v>
+      </c>
+      <c r="J16">
+        <v>1.033312647539365</v>
+      </c>
+      <c r="K16">
+        <v>1.008562508270733</v>
+      </c>
+      <c r="L16">
+        <v>0.9979194615757578</v>
+      </c>
+      <c r="M16">
+        <v>0.9950157690024182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9872764148807824</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9485879999999993</v>
+        <v>0.9872764148807824</v>
       </c>
       <c r="D10">
-        <v>1.117628000000003</v>
+        <v>1.033312647539365</v>
       </c>
       <c r="E10">
-        <v>0.966884</v>
+        <v>0.9838123690021011</v>
       </c>
       <c r="F10">
-        <v>0.9485879999999993</v>
+        <v>0.9872764148807824</v>
       </c>
       <c r="G10">
-        <v>1.060587999999999</v>
+        <v>1.015657891960751</v>
       </c>
       <c r="H10">
-        <v>0.9383520000000002</v>
+        <v>0.9651918068774645</v>
       </c>
       <c r="I10">
-        <v>0.961892</v>
+        <v>0.9848434837540447</v>
       </c>
       <c r="J10">
-        <v>1.117628000000003</v>
+        <v>1.033312647539365</v>
       </c>
       <c r="K10">
-        <v>1.042256000000001</v>
+        <v>1.008562508270733</v>
       </c>
       <c r="L10">
-        <v>0.9954220000000003</v>
+        <v>0.9979194615757578</v>
       </c>
       <c r="M10">
-        <v>0.9989886666666666</v>
+        <v>0.9950157690024182</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.944724999999998</v>
+        <v>0.9890882848700143</v>
       </c>
       <c r="D11">
-        <v>1.16</v>
+        <v>0.9187252483230323</v>
       </c>
       <c r="E11">
-        <v>0.950275</v>
+        <v>1.023305878005722</v>
       </c>
       <c r="F11">
-        <v>0.944724999999998</v>
+        <v>0.9890882848700143</v>
       </c>
       <c r="G11">
-        <v>1.09</v>
+        <v>0.9440247229744136</v>
       </c>
       <c r="H11">
-        <v>0.8918250000000014</v>
+        <v>1.078603711622032</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>1.014292239710973</v>
       </c>
       <c r="J11">
-        <v>1.16</v>
+        <v>0.9187252483230323</v>
       </c>
       <c r="K11">
-        <v>1.0551375</v>
+        <v>0.9710155631643773</v>
       </c>
       <c r="L11">
-        <v>0.9999312499999991</v>
+        <v>0.9800519240171959</v>
       </c>
       <c r="M11">
-        <v>0.9978041666666666</v>
+        <v>0.9946733475843645</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9651903638527993</v>
+        <v>0.9888635449692742</v>
       </c>
       <c r="D12">
-        <v>1.090884561715196</v>
+        <v>0.9197810157257288</v>
       </c>
       <c r="E12">
-        <v>0.9689285482496025</v>
+        <v>1.023038739310726</v>
       </c>
       <c r="F12">
-        <v>0.9651903638527993</v>
+        <v>0.9888635449692742</v>
       </c>
       <c r="G12">
-        <v>1.049700050636798</v>
+        <v>0.944657023984152</v>
       </c>
       <c r="H12">
-        <v>0.9347584265216013</v>
+        <v>1.077840364946744</v>
       </c>
       <c r="I12">
-        <v>0.9687353374720018</v>
+        <v>1.014013425196246</v>
       </c>
       <c r="J12">
-        <v>1.090884561715196</v>
+        <v>0.9197810157257288</v>
       </c>
       <c r="K12">
-        <v>1.029906554982399</v>
+        <v>0.9714098775182272</v>
       </c>
       <c r="L12">
-        <v>0.9975484594175994</v>
+        <v>0.9801367112437507</v>
       </c>
       <c r="M12">
-        <v>0.9963662147413332</v>
+        <v>0.9946990190221451</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9949028469056209</v>
+        <v>0.9889821957207249</v>
       </c>
       <c r="D13">
-        <v>0.9944367161479907</v>
+        <v>0.9190397092901096</v>
       </c>
       <c r="E13">
-        <v>0.9943836030335553</v>
+        <v>1.0232423424971</v>
       </c>
       <c r="F13">
-        <v>0.9949028469056209</v>
+        <v>0.9889821957207249</v>
       </c>
       <c r="G13">
-        <v>0.9948789883372228</v>
+        <v>0.944189686910761</v>
       </c>
       <c r="H13">
-        <v>0.9942863327753213</v>
+        <v>1.07840785549333</v>
       </c>
       <c r="I13">
-        <v>0.9946774040550723</v>
+        <v>1.014212438195833</v>
       </c>
       <c r="J13">
-        <v>0.9944367161479907</v>
+        <v>0.9190397092901096</v>
       </c>
       <c r="K13">
-        <v>0.9944101595907731</v>
+        <v>0.9711410258936046</v>
       </c>
       <c r="L13">
-        <v>0.9946565032481969</v>
+        <v>0.9800616108071648</v>
       </c>
       <c r="M13">
-        <v>0.9945943152091306</v>
+        <v>0.9946790380179763</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9969189478154662</v>
+        <v>0.9485879999999993</v>
       </c>
       <c r="D14">
-        <v>0.9871537829555822</v>
+        <v>1.117628000000003</v>
       </c>
       <c r="E14">
-        <v>0.9947949015518942</v>
+        <v>0.966884</v>
       </c>
       <c r="F14">
-        <v>0.9969189478154662</v>
+        <v>0.9485879999999993</v>
       </c>
       <c r="G14">
-        <v>0.9916049354463785</v>
+        <v>1.060587999999999</v>
       </c>
       <c r="H14">
-        <v>0.9974193833722603</v>
+        <v>0.9383520000000002</v>
       </c>
       <c r="I14">
-        <v>0.9965726585678882</v>
+        <v>0.961892</v>
       </c>
       <c r="J14">
-        <v>0.9871537829555822</v>
+        <v>1.117628000000003</v>
       </c>
       <c r="K14">
-        <v>0.9909743422537383</v>
+        <v>1.042256000000001</v>
       </c>
       <c r="L14">
-        <v>0.9939466450346022</v>
+        <v>0.9954220000000003</v>
       </c>
       <c r="M14">
-        <v>0.9940774349515783</v>
+        <v>0.9989886666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9986182039191551</v>
+        <v>0.944724999999998</v>
       </c>
       <c r="D15">
-        <v>0.9753275336176503</v>
+        <v>1.16</v>
       </c>
       <c r="E15">
-        <v>0.9989590475664728</v>
+        <v>0.950275</v>
       </c>
       <c r="F15">
-        <v>0.9986182039191551</v>
+        <v>0.944724999999998</v>
       </c>
       <c r="G15">
-        <v>0.9837672322707509</v>
+        <v>1.09</v>
       </c>
       <c r="H15">
-        <v>1.007105876091249</v>
+        <v>0.8918250000000014</v>
       </c>
       <c r="I15">
-        <v>0.9997257498316192</v>
+        <v>0.95</v>
       </c>
       <c r="J15">
-        <v>0.9753275336176503</v>
+        <v>1.16</v>
       </c>
       <c r="K15">
-        <v>0.9871432905920616</v>
+        <v>1.0551375</v>
       </c>
       <c r="L15">
-        <v>0.9928807472556083</v>
+        <v>0.9999312499999991</v>
       </c>
       <c r="M15">
-        <v>0.9939172738828163</v>
+        <v>0.9978041666666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9872764148807824</v>
+        <v>0.9651903638527993</v>
       </c>
       <c r="D16">
-        <v>1.033312647539365</v>
+        <v>1.090884561715196</v>
       </c>
       <c r="E16">
-        <v>0.9838123690021011</v>
+        <v>0.9689285482496025</v>
       </c>
       <c r="F16">
-        <v>0.9872764148807824</v>
+        <v>0.9651903638527993</v>
       </c>
       <c r="G16">
-        <v>1.015657891960751</v>
+        <v>1.049700050636798</v>
       </c>
       <c r="H16">
-        <v>0.9651918068774645</v>
+        <v>0.9347584265216013</v>
       </c>
       <c r="I16">
-        <v>0.9848434837540447</v>
+        <v>0.9687353374720018</v>
       </c>
       <c r="J16">
-        <v>1.033312647539365</v>
+        <v>1.090884561715196</v>
       </c>
       <c r="K16">
-        <v>1.008562508270733</v>
+        <v>1.029906554982399</v>
       </c>
       <c r="L16">
-        <v>0.9979194615757578</v>
+        <v>0.9975484594175994</v>
       </c>
       <c r="M16">
-        <v>0.9950157690024182</v>
+        <v>0.9963662147413332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9949028469056209</v>
+      </c>
+      <c r="D17">
+        <v>0.9944367161479907</v>
+      </c>
+      <c r="E17">
+        <v>0.9943836030335553</v>
+      </c>
+      <c r="F17">
+        <v>0.9949028469056209</v>
+      </c>
+      <c r="G17">
+        <v>0.9948789883372228</v>
+      </c>
+      <c r="H17">
+        <v>0.9942863327753213</v>
+      </c>
+      <c r="I17">
+        <v>0.9946774040550723</v>
+      </c>
+      <c r="J17">
+        <v>0.9944367161479907</v>
+      </c>
+      <c r="K17">
+        <v>0.9944101595907731</v>
+      </c>
+      <c r="L17">
+        <v>0.9946565032481969</v>
+      </c>
+      <c r="M17">
+        <v>0.9945943152091306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9969189478154662</v>
+      </c>
+      <c r="D18">
+        <v>0.9871537829555822</v>
+      </c>
+      <c r="E18">
+        <v>0.9947949015518942</v>
+      </c>
+      <c r="F18">
+        <v>0.9969189478154662</v>
+      </c>
+      <c r="G18">
+        <v>0.9916049354463785</v>
+      </c>
+      <c r="H18">
+        <v>0.9974193833722603</v>
+      </c>
+      <c r="I18">
+        <v>0.9965726585678882</v>
+      </c>
+      <c r="J18">
+        <v>0.9871537829555822</v>
+      </c>
+      <c r="K18">
+        <v>0.9909743422537383</v>
+      </c>
+      <c r="L18">
+        <v>0.9939466450346022</v>
+      </c>
+      <c r="M18">
+        <v>0.9940774349515783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9986182039191551</v>
+      </c>
+      <c r="D19">
+        <v>0.9753275336176503</v>
+      </c>
+      <c r="E19">
+        <v>0.9989590475664728</v>
+      </c>
+      <c r="F19">
+        <v>0.9986182039191551</v>
+      </c>
+      <c r="G19">
+        <v>0.9837672322707509</v>
+      </c>
+      <c r="H19">
+        <v>1.007105876091249</v>
+      </c>
+      <c r="I19">
+        <v>0.9997257498316192</v>
+      </c>
+      <c r="J19">
+        <v>0.9753275336176503</v>
+      </c>
+      <c r="K19">
+        <v>0.9871432905920616</v>
+      </c>
+      <c r="L19">
+        <v>0.9928807472556083</v>
+      </c>
+      <c r="M19">
+        <v>0.9939172738828163</v>
       </c>
     </row>
   </sheetData>
